--- a/biology/Zoologie/Coq/Coq.xlsx
+++ b/biology/Zoologie/Coq/Coq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coq est le représentant mâle adulte de plusieurs espèces d'oiseaux, presque exclusivement de galliformes, en particulier le coq domestique, issu du coq bankiva. Sa femelle est la poule. Certaines espèces portent ce qualificatif dans leur nom vernaculaire comme le Coq de bruyère, Coq de Java, Coq de Lafayette, Coq de Sonnerat. Le Coq-de-roche péruvien est le nom donné à un passereau sud-américain. Chez ces espèces, le dimorphisme sexuel est assez marqué.
 Le coq domestique (ainsi que le paon) ont été introduits en Europe par l'Asie Mineure autour des VIIe – VIe siècles av. J.-C. Le premier devient un animal domestique commun et élevé pour la consommation par les humains à partir du Ve siècle av. J.-C.
-L'onomatopée cocorico, imitant le cri du coq domestique, serait à l'origine du terme[1].
+L'onomatopée cocorico, imitant le cri du coq domestique, serait à l'origine du terme.
 </t>
         </is>
       </c>
@@ -513,15 +525,17 @@
           <t>Exemples de mâles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Coq domestique
 Coq faisan, plusieurs espèces
 Coq de bruyère, ou grand Tétras
 Petit coq de bruyère ou tétras lyre
 Coq de perdrix
-Coq de roche[1]
-Coq d'Inde : synonyme vieilli pour dindon[1]</t>
+Coq de roche
+Coq d'Inde : synonyme vieilli pour dindon</t>
         </is>
       </c>
     </row>
@@ -549,12 +563,14 @@
           <t>Chant et transcriptions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La poule caquette, le poussin pépie, le coq chante. Selon les langues et les pays, la transcription phonétique de son chant prend des formes très différentes. Le chant du coq est inné, il n'est pas appris.
 En français, le chant du coq est traduit par l'onomatopée cocorico.
 Kikeriki en allemand.
-Cock-a-doodle-do en anglais[2].
+Cock-a-doodle-do en anglais.
 Kokokog et Kekele en breton.
 唂唂唂 en cantonais.
 咕咕咕 en chinois standard.
@@ -567,7 +583,7 @@
 Chicchirichi en italien.
 Kokekoko en japonais.
 Kokodiako en kikongo
-Kukeleku en néerlandais[3]
+Kukeleku en néerlandais
 Cocorococo en portugais, et cocoricó au Brésil.
 Cucuriguuu en roumain.
 Koukarekou en russe.
@@ -581,8 +597,8 @@
 Gaggalagaggalagó en islandais
 Ü-ürrü-Ü en turc
 « Cocorico » est utilisé par certains Français pour manifester leur chauvinisme, probablement parce que ce cri est interprété comme une manifestation d'orgueil de la part du coq, mais surtout parce que le coq gaulois est devenu un emblème du pays.
-Avant l'invention de l'horloge mécanique et de la montre, le cri du coq a longtemps servi pour donner l'heure (heure solaire), dans toute l'Eurasie et parfois de manière quasi-légale. Ainsi l'une des lois sultaniennes de l'empire ottoman (le kânûn) édictée par Mehmed II (le conquérant de Constantinople), décrétait qu'à propos des moulins dont les roues tournent dans ses états : « Les meuniers seront surveillés. Il est interdit d’élever des poules dans un moulin afin que la farine et le blé des particuliers ne subissent de dommages. On gardera tout au plus un coq pour connaître l’heure. » [4]
-Le coq, comme les passereaux, produit un premier pic sonore à l'aube et un dernier au crépuscule avec un petit creux en cours de journée, mais il chante (à un niveau sonore de 50 à 60 dB) toute la journée. On remarque plus son chant à l'aube car il émerge alors du « bruit de fond » présent dans la journée[5].
+Avant l'invention de l'horloge mécanique et de la montre, le cri du coq a longtemps servi pour donner l'heure (heure solaire), dans toute l'Eurasie et parfois de manière quasi-légale. Ainsi l'une des lois sultaniennes de l'empire ottoman (le kânûn) édictée par Mehmed II (le conquérant de Constantinople), décrétait qu'à propos des moulins dont les roues tournent dans ses états : « Les meuniers seront surveillés. Il est interdit d’élever des poules dans un moulin afin que la farine et le blé des particuliers ne subissent de dommages. On gardera tout au plus un coq pour connaître l’heure. » 
+Le coq, comme les passereaux, produit un premier pic sonore à l'aube et un dernier au crépuscule avec un petit creux en cours de journée, mais il chante (à un niveau sonore de 50 à 60 dB) toute la journée. On remarque plus son chant à l'aube car il émerge alors du « bruit de fond » présent dans la journée.
 </t>
         </is>
       </c>
@@ -613,8 +629,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Symbole identitaire
-Le coq gaulois est un symbole national de la France.
+          <t>Symbole identitaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le coq gaulois est un symbole national de la France.
 Le coq hardi est le symbole du Mouvement wallon, de la Communauté française de Belgique et de la Région wallonne.
 Le coq de Barcelos est un symbole national du Portugal.
 Le club de football anglais Tottenham Hotspur a le coq pour emblème.
@@ -646,7 +667,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Coq Cou nu, Charente
